--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160F763-E854-4F98-8041-AFBA784BC06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922F6EC-B0CB-42FE-AF48-4B0AEF8FB599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
@@ -102,6 +102,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="190" formatCode="0.0000000"/>
+    <numFmt numFmtId="191" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,22 +182,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="191" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="191" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +534,7 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -519,19 +543,19 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.8984375" customWidth="1"/>
     <col min="9" max="9" width="13.8984375" customWidth="1"/>
     <col min="10" max="10" width="15.3984375" customWidth="1"/>
-    <col min="11" max="12" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>1E-3</v>
       </c>
     </row>
@@ -541,45 +565,45 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -588,7 +612,7 @@
       <c r="C5" s="1">
         <v>1.4239999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>143.69999999999999</v>
       </c>
       <c r="E5">
@@ -599,38 +623,40 @@
         <f>B5*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="14">
         <f>C5/((9.81*E5)^0.5)</f>
         <v>1.1993532091972285</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="17">
         <f>E5+((C5^2)/(2*9.81))</f>
         <v>0.24705249745158001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="11">
         <f>((F5^2)/(9.81*E5))+((E5^2)/2)</f>
         <v>1.0622086818631946E-2</v>
       </c>
-      <c r="K5" s="1">
-        <v>0.1128</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.7505000000000004E-2</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="7">
+        <f>H10</f>
+        <v>0.11281142711518857</v>
+      </c>
+      <c r="L5" s="7">
+        <f>H15</f>
+        <v>7.7504711518858307E-2</v>
+      </c>
+      <c r="M5" s="20">
         <f>K5-L5</f>
-        <v>3.5294999999999993E-2</v>
+        <v>3.5306715596330265E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>19.03</v>
       </c>
       <c r="C6" s="1">
         <v>1.589</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>119.72</v>
       </c>
       <c r="E6">
@@ -641,38 +667,40 @@
         <f>B6*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="14">
         <f>C6/((9.81*E6)^0.5)</f>
         <v>1.466243295996599</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="17">
         <f t="shared" ref="H6" si="1">E6+((C6^2)/(2*9.81))</f>
         <v>0.24841118246687055</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="11">
         <f>((F6^2)/(9.81*E6))+((E6^2)/2)</f>
         <v>7.4747877148663234E-3</v>
       </c>
-      <c r="K6" s="1">
-        <v>9.1899999999999996E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6.7391999999999994E-2</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ref="M6:M7" si="2">K6-L6</f>
-        <v>2.4508000000000002E-2</v>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K7" si="2">H11</f>
+        <v>9.1899633027522923E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6:L7" si="3">H16</f>
+        <v>6.7391720693170246E-2</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" ref="M6:M7" si="4">K6-L6</f>
+        <v>2.4507912334352677E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>16.77</v>
       </c>
       <c r="C7" s="1">
         <v>1.6759999999999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>100.1</v>
       </c>
       <c r="E7">
@@ -683,63 +711,71 @@
         <f>B7*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="14">
         <f>C7/((9.81*E7)^0.5)</f>
         <v>1.6913070994223378</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="17">
         <f>E7+((C7^2)/(2*9.81))</f>
         <v>0.24326901121304789</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" ref="I7" si="3">((F7^2)/(9.81*E7))+((E7^2)/2)</f>
+      <c r="I7" s="11">
+        <f t="shared" ref="I7" si="5">((F7^2)/(9.81*E7))+((E7^2)/2)</f>
         <v>5.2963984230906709E-3</v>
       </c>
-      <c r="K7" s="1">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5.8297000000000002E-2</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>1.6202999999999995E-2</v>
-      </c>
+        <v>7.4500356778797142E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>5.829733944954129E-2</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6203017329255852E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="1">
@@ -748,7 +784,7 @@
       <c r="C10" s="1">
         <v>1.387</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>14.76</v>
       </c>
       <c r="E10">
@@ -759,185 +795,189 @@
         <f>B10*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="14">
         <f>C10/((9.81*E10)^0.5)</f>
         <v>3.6450104574775093</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="17">
         <f>E10+((C10^2)/(2*9.81))</f>
         <v>0.11281142711518857</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="11">
         <f>((F10^2)/(9.81*E10))+((E10^2)/2)</f>
         <v>3.0028074813963955E-3</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1">
         <v>19.03</v>
       </c>
       <c r="C11" s="1">
         <v>1.224</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>15.54</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E12" si="4">D11*0.001</f>
+        <f t="shared" ref="E11:E12" si="6">D11*0.001</f>
         <v>1.554E-2</v>
       </c>
       <c r="F11">
         <f>B11*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="14">
         <f>C11/((9.81*E11)^0.5)</f>
         <v>3.1348835063103699</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" ref="H11" si="5">E11+((C11^2)/(2*9.81))</f>
+      <c r="H11" s="17">
+        <f t="shared" ref="H11" si="7">E11+((C11^2)/(2*9.81))</f>
         <v>9.1899633027522923E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="11">
         <f>((F11^2)/(9.81*E11))+((E11^2)/2)</f>
         <v>2.4962595837706649E-3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="21">
         <f>I10</f>
         <v>3.0028074813963955E-3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="21">
         <f>I5</f>
         <v>1.0622086818631946E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="18">
         <f>K11-L11</f>
         <v>-7.6192793372355508E-3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="19">
         <f>9810*M11</f>
         <v>-74.745130298280756</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1">
         <v>16.77</v>
       </c>
       <c r="C12" s="1">
         <v>1.075</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>15.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F12">
         <f>B12*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="14">
         <f>C12/((9.81*E12)^0.5)</f>
         <v>2.7479679387055227</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="17">
         <f>E12+((C12^2)/(2*9.81))</f>
         <v>7.4500356778797142E-2</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" ref="I12" si="6">((F12^2)/(9.81*E12))+((E12^2)/2)</f>
+      <c r="I12" s="11">
+        <f t="shared" ref="I12" si="8">((F12^2)/(9.81*E12))+((E12^2)/2)</f>
         <v>1.9593711314984711E-3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="21">
         <f>I11</f>
         <v>2.4962595837706649E-3</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="21">
         <f>I6</f>
         <v>7.4747877148663234E-3</v>
       </c>
-      <c r="M12" s="5">
-        <f t="shared" ref="M12:M13" si="7">K12-L12</f>
+      <c r="M12" s="18">
+        <f t="shared" ref="M12:M13" si="9">K12-L12</f>
         <v>-4.9785281310956581E-3</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" ref="N12:N13" si="8">9810*M12</f>
+      <c r="N12" s="19">
+        <f t="shared" ref="N12:N13" si="10">9810*M12</f>
         <v>-48.839360966048403</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" s="1">
+      <c r="D13" s="8"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="21">
         <f>I12</f>
         <v>1.9593711314984711E-3</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="21">
         <f>I7</f>
         <v>5.2963984230906709E-3</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" si="7"/>
+      <c r="M13" s="18">
+        <f t="shared" si="9"/>
         <v>-3.3370272915921998E-3</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="8"/>
+      <c r="N13" s="19">
+        <f t="shared" si="10"/>
         <v>-32.736237730519477</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>20.47</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>0.2782</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>73.56</v>
       </c>
       <c r="E15">
@@ -948,80 +988,80 @@
         <f>B15*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="14">
         <f>C15/((9.81*E15)^0.5)</f>
         <v>0.32749280400291197</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="17">
         <f>E15+((C15^2)/(2*9.81))</f>
         <v>7.7504711518858307E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="11">
         <f>((F15^2)/(9.81*E15))+((E15^2)/2)</f>
         <v>3.2862008747336978E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1">
         <v>19.03</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>0.3034</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>62.7</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E17" si="9">D16*0.001</f>
+        <f t="shared" ref="E16:E17" si="11">D16*0.001</f>
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="F16">
         <f>B16*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="14">
         <f>C16/((9.81*E16)^0.5)</f>
         <v>0.3868541875973045</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="17">
         <f>E16+((C16^2)/(2*9.81))</f>
         <v>6.7391720693170246E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="11">
         <f>((F16^2)/(9.81*E16))+((E16^2)/2)</f>
         <v>2.5544087033460309E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>16.77</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>0.315</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>53.24</v>
       </c>
       <c r="E17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3240000000000003E-2</v>
       </c>
       <c r="F17">
         <f>B17*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="14">
         <f>C17/((9.81*E17)^0.5)</f>
         <v>0.43587004838734927</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="17">
         <f>E17+((C17^2)/(2*9.81))</f>
         <v>5.829733944954129E-2</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" ref="I17" si="10">((F17^2)/(9.81*E17))+((E17^2)/2)</f>
+      <c r="I17" s="11">
+        <f t="shared" ref="I17" si="12">((F17^2)/(9.81*E17))+((E17^2)/2)</f>
         <v>1.9557157731663437E-3</v>
       </c>
     </row>

--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922F6EC-B0CB-42FE-AF48-4B0AEF8FB599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F733FDF3-7BA4-4EB6-B52A-0E106F9A425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="9-5" sheetId="1" r:id="rId1"/>
+    <sheet name="9-7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
-  <si>
-    <t>q</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>E2</t>
   </si>
@@ -96,6 +94,54 @@
   </si>
   <si>
     <t>M2-M1</t>
+  </si>
+  <si>
+    <t>ทฤษฎี</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y3/y2</t>
+  </si>
+  <si>
+    <t>sqrt(1+8Fr2^2)</t>
+  </si>
+  <si>
+    <t>&lt;ลอกอันนี้</t>
+  </si>
+  <si>
+    <t>ก่อนประตูระบายน้ำ</t>
+  </si>
+  <si>
+    <t>ก่อนไฮโดลิคจั้ม</t>
+  </si>
+  <si>
+    <t>หลังไฮโดลิคจั้ม</t>
+  </si>
+  <si>
+    <t>การทดลองที่</t>
+  </si>
+  <si>
+    <t>C(q)</t>
+  </si>
+  <si>
+    <t>Fr2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>แกน</t>
+  </si>
+  <si>
+    <t>yทฤษฎี</t>
+  </si>
+  <si>
+    <t>yทดลอง</t>
   </si>
 </sst>
 </file>
@@ -104,10 +150,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="187" formatCode="0.000"/>
-    <numFmt numFmtId="190" formatCode="0.0000000"/>
-    <numFmt numFmtId="191" formatCode="0.000000"/>
+    <numFmt numFmtId="188" formatCode="0.0000000"/>
+    <numFmt numFmtId="189" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +162,16 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +208,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -178,13 +244,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,30 +380,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="191" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="191" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +472,1308 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟค.สัมพันธ์</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>y3/y2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กับ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>sqrt(1+8Fr2^2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ทฤษฎี</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0902407659069622E-2"/>
+                  <c:y val="8.0289316155627649E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0902407659069622E-2"/>
+                  <c:y val="8.0289316155627649E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0902407659069622E-2"/>
+                  <c:y val="8.0289316155627719E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout>
+                  <c:manualLayout>
+                    <c:x val="3.0902407659069622E-2"/>
+                    <c:y val="8.0289314642823753E-2"/>
+                  </c:manualLayout>
+                </c15:layout>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9-7'!$M$16:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.358031177833132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9230015569366792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.836492987122992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9-7'!$K$16:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6790155889165659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9615007784683396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.418246493561496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2416-40BA-B335-3A8A2A2CE1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ทดลอง</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.6219444983720618E-3"/>
+                  <c:y val="-9.3135604985675649E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1804815318139326E-2"/>
+                  <c:y val="-0.14452076635708286"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1589266679609295"/>
+                  <c:y val="-0.10919346791424039"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2416-40BA-B335-3A8A2A2CE1C2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="th-TH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="sq" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9-7'!$M$16:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.358031177833132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9230015569366792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.836492987122992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9-7'!$L$16:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9837398373983746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0347490347490353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4128205128205131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2416-40BA-B335-3A8A2A2CE1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="548756079"/>
+        <c:axId val="548762799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="548756079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548762799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548762799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548756079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="18900000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="6000" sy="6000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDE3EE8-3DFA-000D-24ED-DC369AA8A04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,16 +2076,17 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.8984375" customWidth="1"/>
     <col min="9" max="9" width="13.8984375" customWidth="1"/>
     <col min="10" max="10" width="15.3984375" customWidth="1"/>
@@ -551,523 +2094,561 @@
     <col min="13" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
-        <v>1E-3</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>17</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C5" s="16">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="E5" s="16">
         <v>20.47</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>143.69999999999999</v>
-      </c>
-      <c r="E5">
+      <c r="F5" s="4">
         <f>D5*0.001</f>
         <v>0.14369999999999999</v>
       </c>
-      <c r="F5">
-        <f>B5*C$2</f>
+      <c r="G5" s="4">
+        <f>E5*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G5" s="14">
-        <f>C5/((9.81*E5)^0.5)</f>
+      <c r="H5" s="18">
+        <f>C5/((9.81*F5)^0.5)</f>
         <v>1.1993532091972285</v>
       </c>
-      <c r="H5" s="17">
-        <f>E5+((C5^2)/(2*9.81))</f>
+      <c r="I5" s="19">
+        <f>F5+((C5^2)/(2*9.81))</f>
         <v>0.24705249745158001</v>
       </c>
-      <c r="I5" s="11">
-        <f>((F5^2)/(9.81*E5))+((E5^2)/2)</f>
+      <c r="J5" s="20">
+        <f>((G5^2)/(9.81*F5))+((F5^2)/2)</f>
         <v>1.0622086818631946E-2</v>
       </c>
-      <c r="K5" s="7">
-        <f>H10</f>
+      <c r="L5" s="5">
+        <f>I10</f>
         <v>0.11281142711518857</v>
       </c>
-      <c r="L5" s="7">
-        <f>H15</f>
+      <c r="M5" s="5">
+        <f>I15</f>
         <v>7.7504711518858307E-2</v>
       </c>
-      <c r="M5" s="20">
-        <f>K5-L5</f>
+      <c r="N5" s="11">
+        <f>L5-M5</f>
         <v>3.5306715596330265E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.589</v>
+      </c>
+      <c r="D6" s="17">
+        <v>119.72</v>
+      </c>
+      <c r="E6" s="16">
         <v>19.03</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.589</v>
-      </c>
-      <c r="D6" s="7">
-        <v>119.72</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E7" si="0">D6*0.001</f>
+      <c r="F6" s="4">
+        <f>D6*0.001</f>
         <v>0.11972000000000001</v>
       </c>
-      <c r="F6">
-        <f>B6*C$2</f>
+      <c r="G6" s="4">
+        <f>E6*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G6" s="14">
-        <f>C6/((9.81*E6)^0.5)</f>
+      <c r="H6" s="18">
+        <f>C6/((9.81*F6)^0.5)</f>
         <v>1.466243295996599</v>
       </c>
-      <c r="H6" s="17">
-        <f t="shared" ref="H6" si="1">E6+((C6^2)/(2*9.81))</f>
+      <c r="I6" s="19">
+        <f>F6+((C6^2)/(2*9.81))</f>
         <v>0.24841118246687055</v>
       </c>
-      <c r="I6" s="11">
-        <f>((F6^2)/(9.81*E6))+((E6^2)/2)</f>
+      <c r="J6" s="20">
+        <f>((G6^2)/(9.81*F6))+((F6^2)/2)</f>
         <v>7.4747877148663234E-3</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" ref="K6:K7" si="2">H11</f>
+      <c r="L6" s="5">
+        <f>I11</f>
         <v>9.1899633027522923E-2</v>
       </c>
-      <c r="L6" s="7">
-        <f t="shared" ref="L6:L7" si="3">H16</f>
+      <c r="M6" s="5">
+        <f>I16</f>
         <v>6.7391720693170246E-2</v>
       </c>
-      <c r="M6" s="20">
-        <f t="shared" ref="M6:M7" si="4">K6-L6</f>
+      <c r="N6" s="11">
+        <f t="shared" ref="N6:N7" si="0">L6-M6</f>
         <v>2.4507912334352677E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="D7" s="17">
+        <v>100.1</v>
+      </c>
+      <c r="E7" s="16">
         <v>16.77</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.6759999999999999</v>
-      </c>
-      <c r="D7" s="7">
-        <v>100.1</v>
-      </c>
-      <c r="E7">
+      <c r="F7" s="4">
+        <f>D7*0.001</f>
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <f>E7*C$2</f>
+        <v>1.677E-2</v>
+      </c>
+      <c r="H7" s="18">
+        <f>C7/((9.81*F7)^0.5)</f>
+        <v>1.6913070994223378</v>
+      </c>
+      <c r="I7" s="19">
+        <f>F7+((C7^2)/(2*9.81))</f>
+        <v>0.24326901121304789</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" ref="J7" si="1">((G7^2)/(9.81*F7))+((F7^2)/2)</f>
+        <v>5.2963984230906709E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <f>I12</f>
+        <v>7.4500356778797142E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>I17</f>
+        <v>5.829733944954129E-2</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="F7">
-        <f>B7*C$2</f>
-        <v>1.677E-2</v>
-      </c>
-      <c r="G7" s="14">
-        <f>C7/((9.81*E7)^0.5)</f>
-        <v>1.6913070994223378</v>
-      </c>
-      <c r="H7" s="17">
-        <f>E7+((C7^2)/(2*9.81))</f>
-        <v>0.24326901121304789</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" ref="I7" si="5">((F7^2)/(9.81*E7))+((E7^2)/2)</f>
-        <v>5.2963984230906709E-3</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>7.4500356778797142E-2</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="3"/>
-        <v>5.829733944954129E-2</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="4"/>
         <v>1.6203017329255852E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="12"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>18</v>
+      <c r="L9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1.387</v>
+      </c>
+      <c r="D10" s="17">
+        <v>14.76</v>
+      </c>
+      <c r="E10" s="16">
         <v>20.47</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.387</v>
-      </c>
-      <c r="D10" s="7">
-        <v>14.76</v>
-      </c>
-      <c r="E10">
+      <c r="F10" s="4">
         <f>D10*0.001</f>
         <v>1.4760000000000001E-2</v>
       </c>
-      <c r="F10">
-        <f>B10*C$2</f>
+      <c r="G10" s="4">
+        <f>E10*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G10" s="14">
-        <f>C10/((9.81*E10)^0.5)</f>
+      <c r="H10" s="18">
+        <f>C10/((9.81*F10)^0.5)</f>
         <v>3.6450104574775093</v>
       </c>
-      <c r="H10" s="17">
-        <f>E10+((C10^2)/(2*9.81))</f>
+      <c r="I10" s="19">
+        <f>F10+((C10^2)/(2*9.81))</f>
         <v>0.11281142711518857</v>
       </c>
-      <c r="I10" s="11">
-        <f>((F10^2)/(9.81*E10))+((E10^2)/2)</f>
+      <c r="J10" s="20">
+        <f>((G10^2)/(9.81*F10))+((F10^2)/2)</f>
         <v>3.0028074813963955E-3</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>15</v>
+      <c r="N10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.224</v>
+      </c>
+      <c r="D11" s="17">
+        <v>15.54</v>
+      </c>
+      <c r="E11" s="16">
         <v>19.03</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.224</v>
-      </c>
-      <c r="D11" s="7">
-        <v>15.54</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:E12" si="6">D11*0.001</f>
+      <c r="F11" s="4">
+        <f>D11*0.001</f>
         <v>1.554E-2</v>
       </c>
-      <c r="F11">
-        <f>B11*C$2</f>
+      <c r="G11" s="4">
+        <f>E11*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G11" s="14">
-        <f>C11/((9.81*E11)^0.5)</f>
+      <c r="H11" s="18">
+        <f>C11/((9.81*F11)^0.5)</f>
         <v>3.1348835063103699</v>
       </c>
-      <c r="H11" s="17">
-        <f t="shared" ref="H11" si="7">E11+((C11^2)/(2*9.81))</f>
+      <c r="I11" s="19">
+        <f>F11+((C11^2)/(2*9.81))</f>
         <v>9.1899633027522923E-2</v>
       </c>
-      <c r="I11" s="11">
-        <f>((F11^2)/(9.81*E11))+((E11^2)/2)</f>
+      <c r="J11" s="20">
+        <f>((G11^2)/(9.81*F11))+((F11^2)/2)</f>
         <v>2.4962595837706649E-3</v>
       </c>
-      <c r="K11" s="21">
-        <f>I10</f>
+      <c r="L11" s="12">
+        <f>J10</f>
         <v>3.0028074813963955E-3</v>
       </c>
-      <c r="L11" s="21">
-        <f>I5</f>
+      <c r="M11" s="12">
+        <f>J5</f>
         <v>1.0622086818631946E-2</v>
       </c>
-      <c r="M11" s="18">
-        <f>K11-L11</f>
+      <c r="N11" s="9">
+        <f>L11-M11</f>
         <v>-7.6192793372355508E-3</v>
       </c>
-      <c r="N11" s="19">
-        <f>9810*M11</f>
+      <c r="O11" s="10">
+        <f>9810*N11</f>
         <v>-74.745130298280756</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1.075</v>
+      </c>
+      <c r="D12" s="17">
+        <v>15.6</v>
+      </c>
+      <c r="E12" s="16">
         <v>16.77</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.075</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15.6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
+      <c r="F12" s="4">
+        <f>D12*0.001</f>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F12">
-        <f>B12*C$2</f>
+      <c r="G12" s="4">
+        <f>E12*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="G12" s="14">
-        <f>C12/((9.81*E12)^0.5)</f>
+      <c r="H12" s="18">
+        <f>C12/((9.81*F12)^0.5)</f>
         <v>2.7479679387055227</v>
       </c>
-      <c r="H12" s="17">
-        <f>E12+((C12^2)/(2*9.81))</f>
+      <c r="I12" s="19">
+        <f>F12+((C12^2)/(2*9.81))</f>
         <v>7.4500356778797142E-2</v>
       </c>
-      <c r="I12" s="11">
-        <f t="shared" ref="I12" si="8">((F12^2)/(9.81*E12))+((E12^2)/2)</f>
+      <c r="J12" s="20">
+        <f t="shared" ref="J12" si="2">((G12^2)/(9.81*F12))+((F12^2)/2)</f>
         <v>1.9593711314984711E-3</v>
       </c>
-      <c r="K12" s="21">
-        <f>I11</f>
+      <c r="L12" s="12">
+        <f>J11</f>
         <v>2.4962595837706649E-3</v>
       </c>
-      <c r="L12" s="21">
-        <f>I6</f>
+      <c r="M12" s="12">
+        <f>J6</f>
         <v>7.4747877148663234E-3</v>
       </c>
-      <c r="M12" s="18">
-        <f t="shared" ref="M12:M13" si="9">K12-L12</f>
+      <c r="N12" s="9">
+        <f t="shared" ref="N12:N13" si="3">L12-M12</f>
         <v>-4.9785281310956581E-3</v>
       </c>
-      <c r="N12" s="19">
-        <f t="shared" ref="N12:N13" si="10">9810*M12</f>
+      <c r="O12" s="10">
+        <f t="shared" ref="O12:O13" si="4">9810*N12</f>
         <v>-48.839360966048403</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="21">
-        <f>I12</f>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="23"/>
+      <c r="L13" s="12">
+        <f>J12</f>
         <v>1.9593711314984711E-3</v>
       </c>
-      <c r="L13" s="21">
-        <f>I7</f>
+      <c r="M13" s="12">
+        <f>J7</f>
         <v>5.2963984230906709E-3</v>
       </c>
-      <c r="M13" s="18">
-        <f t="shared" si="9"/>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
         <v>-3.3370272915921998E-3</v>
       </c>
-      <c r="N13" s="19">
-        <f t="shared" si="10"/>
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
         <v>-32.736237730519477</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3</v>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.2782</v>
+      </c>
+      <c r="D15" s="17">
+        <v>73.56</v>
+      </c>
+      <c r="E15" s="16">
         <v>20.47</v>
       </c>
-      <c r="C15" s="10">
-        <v>0.2782</v>
-      </c>
-      <c r="D15" s="7">
-        <v>73.56</v>
-      </c>
-      <c r="E15">
+      <c r="F15" s="4">
         <f>D15*0.001</f>
         <v>7.356E-2</v>
       </c>
-      <c r="F15">
-        <f>B15*C$2</f>
+      <c r="G15" s="4">
+        <f>E15*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="G15" s="14">
-        <f>C15/((9.81*E15)^0.5)</f>
+      <c r="H15" s="18">
+        <f>C15/((9.81*F15)^0.5)</f>
         <v>0.32749280400291197</v>
       </c>
-      <c r="H15" s="17">
-        <f>E15+((C15^2)/(2*9.81))</f>
+      <c r="I15" s="19">
+        <f>F15+((C15^2)/(2*9.81))</f>
         <v>7.7504711518858307E-2</v>
       </c>
-      <c r="I15" s="11">
-        <f>((F15^2)/(9.81*E15))+((E15^2)/2)</f>
+      <c r="J15" s="20">
+        <f>((G15^2)/(9.81*F15))+((F15^2)/2)</f>
         <v>3.2862008747336978E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.3034</v>
+      </c>
+      <c r="D16" s="17">
+        <v>62.7</v>
+      </c>
+      <c r="E16" s="16">
         <v>19.03</v>
       </c>
-      <c r="C16" s="10">
-        <v>0.3034</v>
-      </c>
-      <c r="D16" s="7">
-        <v>62.7</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E17" si="11">D16*0.001</f>
+      <c r="F16" s="4">
+        <f>D16*0.001</f>
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F16">
-        <f>B16*C$2</f>
+      <c r="G16" s="4">
+        <f>E16*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="G16" s="14">
-        <f>C16/((9.81*E16)^0.5)</f>
+      <c r="H16" s="18">
+        <f>C16/((9.81*F16)^0.5)</f>
         <v>0.3868541875973045</v>
       </c>
-      <c r="H16" s="17">
-        <f>E16+((C16^2)/(2*9.81))</f>
+      <c r="I16" s="19">
+        <f>F16+((C16^2)/(2*9.81))</f>
         <v>6.7391720693170246E-2</v>
       </c>
-      <c r="I16" s="11">
-        <f>((F16^2)/(9.81*E16))+((E16^2)/2)</f>
+      <c r="J16" s="20">
+        <f>((G16^2)/(9.81*F16))+((F16^2)/2)</f>
         <v>2.5544087033460309E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.315</v>
+      </c>
+      <c r="D17" s="17">
+        <v>53.24</v>
+      </c>
+      <c r="E17" s="16">
         <v>16.77</v>
       </c>
-      <c r="C17" s="10">
-        <v>0.315</v>
-      </c>
-      <c r="D17" s="7">
-        <v>53.24</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="11"/>
+      <c r="F17" s="4">
+        <f>D17*0.001</f>
         <v>5.3240000000000003E-2</v>
       </c>
-      <c r="F17">
-        <f>B17*C$2</f>
+      <c r="G17" s="4">
+        <f>E17*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="G17" s="14">
-        <f>C17/((9.81*E17)^0.5)</f>
+      <c r="H17" s="18">
+        <f>C17/((9.81*F17)^0.5)</f>
         <v>0.43587004838734927</v>
       </c>
-      <c r="H17" s="17">
-        <f>E17+((C17^2)/(2*9.81))</f>
+      <c r="I17" s="19">
+        <f>F17+((C17^2)/(2*9.81))</f>
         <v>5.829733944954129E-2</v>
       </c>
-      <c r="I17" s="11">
-        <f t="shared" ref="I17" si="12">((F17^2)/(9.81*E17))+((E17^2)/2)</f>
+      <c r="J17" s="20">
+        <f t="shared" ref="J17" si="5">((G17^2)/(9.81*F17))+((F17^2)/2)</f>
         <v>1.9557157731663437E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1078,4 +2659,252 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27AEE3-0A6B-41EF-AC76-0A40C0432953}">
+  <dimension ref="B3:M18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="F3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24">
+        <f>'9-5'!H10</f>
+        <v>3.6450104574775093</v>
+      </c>
+      <c r="C5" s="36">
+        <f>SQRT(1+(8*(B5^2)))</f>
+        <v>10.358031177833132</v>
+      </c>
+      <c r="D5" s="36">
+        <f>0.5*(C5-1)</f>
+        <v>4.6790155889165659</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="17">
+        <f>'9-5'!D10</f>
+        <v>14.76</v>
+      </c>
+      <c r="G5" s="17">
+        <f>'9-5'!D15</f>
+        <v>73.56</v>
+      </c>
+      <c r="H5" s="36">
+        <f>G5/F5</f>
+        <v>4.9837398373983746</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24">
+        <f>'9-5'!H11</f>
+        <v>3.1348835063103699</v>
+      </c>
+      <c r="C6" s="36">
+        <f t="shared" ref="C6:C7" si="0">SQRT(1+(8*(B6^2)))</f>
+        <v>8.9230015569366792</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" ref="D6:D7" si="1">0.5*(C6-1)</f>
+        <v>3.9615007784683396</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="17">
+        <f>'9-5'!D11</f>
+        <v>15.54</v>
+      </c>
+      <c r="G6" s="17">
+        <f>'9-5'!D16</f>
+        <v>62.7</v>
+      </c>
+      <c r="H6" s="36">
+        <f t="shared" ref="H6:H7" si="2">G6/F6</f>
+        <v>4.0347490347490353</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B7" s="24">
+        <f>'9-5'!H12</f>
+        <v>2.7479679387055227</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" si="0"/>
+        <v>7.836492987122992</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="1"/>
+        <v>3.418246493561496</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="17">
+        <f>'9-5'!D12</f>
+        <v>15.6</v>
+      </c>
+      <c r="G7" s="17">
+        <f>'9-5'!D17</f>
+        <v>53.24</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" si="2"/>
+        <v>3.4128205128205131</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B8" s="4"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="30">
+        <f>D5</f>
+        <v>4.6790155889165659</v>
+      </c>
+      <c r="L16" s="33">
+        <f>H5</f>
+        <v>4.9837398373983746</v>
+      </c>
+      <c r="M16" s="30">
+        <f>C5</f>
+        <v>10.358031177833132</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="31">
+        <f t="shared" ref="K17:K18" si="3">D6</f>
+        <v>3.9615007784683396</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" ref="L17:L18" si="4">H6</f>
+        <v>4.0347490347490353</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" ref="M17:M18" si="5">C6</f>
+        <v>8.9230015569366792</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="32">
+        <f t="shared" si="3"/>
+        <v>3.418246493561496</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" si="4"/>
+        <v>3.4128205128205131</v>
+      </c>
+      <c r="M18" s="32">
+        <f t="shared" si="5"/>
+        <v>7.836492987122992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="J3:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F733FDF3-7BA4-4EB6-B52A-0E106F9A425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FC838C-604B-4759-8EA4-16C5EBE03369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="9-5" sheetId="1" r:id="rId1"/>
@@ -394,12 +394,6 @@
     <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="189" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +424,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,24 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,9 +605,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-2416-40BA-B335-3A8A2A2CE1C2}"/>
                 </c:ext>
@@ -628,9 +626,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-2416-40BA-B335-3A8A2A2CE1C2}"/>
                 </c:ext>
@@ -651,9 +647,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-2416-40BA-B335-3A8A2A2CE1C2}"/>
                 </c:ext>
@@ -721,6 +715,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'9-7'!$M$16:$M$18</c:f>
@@ -839,8 +847,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1589266679609295"/>
-                  <c:y val="-0.10919346791424039"/>
+                  <c:x val="-7.5048704314883363E-2"/>
+                  <c:y val="-0.16360784242562632"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -913,6 +921,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'9-7'!$M$16:$M$18</c:f>
@@ -971,6 +993,7 @@
         <c:axId val="548756079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="7.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -988,6 +1011,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1033,6 +1070,7 @@
         <c:axId val="548762799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1050,6 +1088,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1058,9 +1110,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="93000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2075,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD09ADB-0745-4D99-9E4C-B26A525D4D11}">
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2160,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2147,19 +2198,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1.4239999999999999</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>143.69999999999999</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>20.47</v>
       </c>
       <c r="F5" s="4">
@@ -2170,15 +2221,15 @@
         <f>E5*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <f>C5/((9.81*F5)^0.5)</f>
         <v>1.1993532091972285</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <f>F5+((C5^2)/(2*9.81))</f>
         <v>0.24705249745158001</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <f>((G5^2)/(9.81*F5))+((F5^2)/2)</f>
         <v>1.0622086818631946E-2</v>
       </c>
@@ -2196,17 +2247,17 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1.589</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>119.72</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>19.03</v>
       </c>
       <c r="F6" s="4">
@@ -2217,15 +2268,15 @@
         <f>E6*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <f>C6/((9.81*F6)^0.5)</f>
         <v>1.466243295996599</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f>F6+((C6^2)/(2*9.81))</f>
         <v>0.24841118246687055</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>((G6^2)/(9.81*F6))+((F6^2)/2)</f>
         <v>7.4747877148663234E-3</v>
       </c>
@@ -2243,17 +2294,17 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1.6759999999999999</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>100.1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>16.77</v>
       </c>
       <c r="F7" s="4">
@@ -2264,15 +2315,15 @@
         <f>E7*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <f>C7/((9.81*F7)^0.5)</f>
         <v>1.6913070994223378</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <f>F7+((C7^2)/(2*9.81))</f>
         <v>0.24326901121304789</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f t="shared" ref="J7" si="1">((G7^2)/(9.81*F7))+((F7^2)/2)</f>
         <v>5.2963984230906709E-3</v>
       </c>
@@ -2292,16 +2343,16 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="23"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2333,19 +2384,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1.387</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>14.76</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>20.47</v>
       </c>
       <c r="F10" s="4">
@@ -2356,15 +2407,15 @@
         <f>E10*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <f>C10/((9.81*F10)^0.5)</f>
         <v>3.6450104574775093</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f>F10+((C10^2)/(2*9.81))</f>
         <v>0.11281142711518857</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f>((G10^2)/(9.81*F10))+((F10^2)/2)</f>
         <v>3.0028074813963955E-3</v>
       </c>
@@ -2382,17 +2433,17 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1.224</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>15.54</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>19.03</v>
       </c>
       <c r="F11" s="4">
@@ -2403,15 +2454,15 @@
         <f>E11*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <f>C11/((9.81*F11)^0.5)</f>
         <v>3.1348835063103699</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f>F11+((C11^2)/(2*9.81))</f>
         <v>9.1899633027522923E-2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f>((G11^2)/(9.81*F11))+((F11^2)/2)</f>
         <v>2.4962595837706649E-3</v>
       </c>
@@ -2433,17 +2484,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>1.075</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>15.6</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>16.77</v>
       </c>
       <c r="F12" s="4">
@@ -2454,15 +2505,15 @@
         <f>E12*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <f>C12/((9.81*F12)^0.5)</f>
         <v>2.7479679387055227</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f>F12+((C12^2)/(2*9.81))</f>
         <v>7.4500356778797142E-2</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f t="shared" ref="J12" si="2">((G12^2)/(9.81*F12))+((F12^2)/2)</f>
         <v>1.9593711314984711E-3</v>
       </c>
@@ -2486,12 +2537,12 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
       <c r="L13" s="12">
         <f>J12</f>
         <v>1.9593711314984711E-3</v>
@@ -2511,7 +2562,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2540,19 +2591,19 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>0.2782</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>73.56</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>20.47</v>
       </c>
       <c r="F15" s="4">
@@ -2563,31 +2614,31 @@
         <f>E15*C$2</f>
         <v>2.0469999999999999E-2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <f>C15/((9.81*F15)^0.5)</f>
         <v>0.32749280400291197</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <f>F15+((C15^2)/(2*9.81))</f>
         <v>7.7504711518858307E-2</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <f>((G15^2)/(9.81*F15))+((F15^2)/2)</f>
         <v>3.2862008747336978E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>0.3034</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>62.7</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>19.03</v>
       </c>
       <c r="F16" s="4">
@@ -2598,31 +2649,31 @@
         <f>E16*C$2</f>
         <v>1.9030000000000002E-2</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <f>C16/((9.81*F16)^0.5)</f>
         <v>0.3868541875973045</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <f>F16+((C16^2)/(2*9.81))</f>
         <v>6.7391720693170246E-2</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <f>((G16^2)/(9.81*F16))+((F16^2)/2)</f>
         <v>2.5544087033460309E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>0.315</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>53.24</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>16.77</v>
       </c>
       <c r="F17" s="4">
@@ -2633,15 +2684,15 @@
         <f>E17*C$2</f>
         <v>1.677E-2</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <f>C17/((9.81*F17)^0.5)</f>
         <v>0.43587004838734927</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <f>F17+((C17^2)/(2*9.81))</f>
         <v>5.829733944954129E-2</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <f t="shared" ref="J17" si="5">((G17^2)/(9.81*F17))+((F17^2)/2)</f>
         <v>1.9557157731663437E-3</v>
       </c>
@@ -2665,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27AEE3-0A6B-41EF-AC76-0A40C0432953}">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2677,221 +2728,221 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <f>'9-5'!H10</f>
         <v>3.6450104574775093</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <f>SQRT(1+(8*(B5^2)))</f>
         <v>10.358031177833132</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="31">
         <f>0.5*(C5-1)</f>
         <v>4.6790155889165659</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <f>'9-5'!D10</f>
         <v>14.76</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>'9-5'!D15</f>
         <v>73.56</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="31">
         <f>G5/F5</f>
         <v>4.9837398373983746</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>'9-5'!H11</f>
         <v>3.1348835063103699</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="31">
         <f t="shared" ref="C6:C7" si="0">SQRT(1+(8*(B6^2)))</f>
         <v>8.9230015569366792</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="31">
         <f t="shared" ref="D6:D7" si="1">0.5*(C6-1)</f>
         <v>3.9615007784683396</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <f>'9-5'!D11</f>
         <v>15.54</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <f>'9-5'!D16</f>
         <v>62.7</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="31">
         <f t="shared" ref="H6:H7" si="2">G6/F6</f>
         <v>4.0347490347490353</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>'9-5'!H12</f>
         <v>2.7479679387055227</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>7.836492987122992</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="31">
         <f t="shared" si="1"/>
         <v>3.418246493561496</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <f>'9-5'!D12</f>
         <v>15.6</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f>'9-5'!D17</f>
         <v>53.24</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="31">
         <f t="shared" si="2"/>
         <v>3.4128205128205131</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B8" s="4"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="12" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="30">
+      <c r="K16" s="25">
         <f>D5</f>
         <v>4.6790155889165659</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="28">
         <f>H5</f>
         <v>4.9837398373983746</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="25">
         <f>C5</f>
         <v>10.358031177833132</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K17" s="31">
+      <c r="K17" s="26">
         <f t="shared" ref="K17:K18" si="3">D6</f>
         <v>3.9615007784683396</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="29">
         <f t="shared" ref="L17:L18" si="4">H6</f>
         <v>4.0347490347490353</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="26">
         <f t="shared" ref="M17:M18" si="5">C6</f>
         <v>8.9230015569366792</v>
       </c>
     </row>
     <row r="18" spans="11:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="32">
+      <c r="K18" s="27">
         <f t="shared" si="3"/>
         <v>3.418246493561496</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="30">
         <f t="shared" si="4"/>
         <v>3.4128205128205131</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="27">
         <f t="shared" si="5"/>
         <v>7.836492987122992</v>
       </c>

--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FC838C-604B-4759-8EA4-16C5EBE03369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F343A66-A849-4581-AD8E-E444A49971AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="9-5" sheetId="1" r:id="rId1"/>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27AEE3-0A6B-41EF-AC76-0A40C0432953}">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F343A66-A849-4581-AD8E-E444A49971AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D600101A-3F5F-43EE-AC40-60EDD1CFB7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="9-5" sheetId="1" r:id="rId1"/>
@@ -691,12 +691,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout>
-                  <c:manualLayout>
-                    <c:x val="3.0902407659069622E-2"/>
-                    <c:y val="8.0289314642823753E-2"/>
-                  </c:manualLayout>
-                </c15:layout>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2126,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD09ADB-0745-4D99-9E4C-B26A525D4D11}">
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14">
-        <v>1.4239999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D5" s="15">
         <v>143.69999999999999</v>
@@ -2223,11 +2217,11 @@
       </c>
       <c r="H5" s="16">
         <f>C5/((9.81*F5)^0.5)</f>
-        <v>1.1993532091972285</v>
+        <v>0.11959842395084723</v>
       </c>
       <c r="I5" s="17">
         <f>F5+((C5^2)/(2*9.81))</f>
-        <v>0.24705249745158001</v>
+        <v>0.14472772680937818</v>
       </c>
       <c r="J5" s="18">
         <f>((G5^2)/(9.81*F5))+((F5^2)/2)</f>
@@ -2252,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>1.589</v>
+        <v>0.159</v>
       </c>
       <c r="D6" s="15">
         <v>119.72</v>
@@ -2270,11 +2264,11 @@
       </c>
       <c r="H6" s="16">
         <f>C6/((9.81*F6)^0.5)</f>
-        <v>1.466243295996599</v>
+        <v>0.14671660419349231</v>
       </c>
       <c r="I6" s="17">
         <f>F6+((C6^2)/(2*9.81))</f>
-        <v>0.24841118246687055</v>
+        <v>0.12100853211009174</v>
       </c>
       <c r="J6" s="18">
         <f>((G6^2)/(9.81*F6))+((F6^2)/2)</f>
@@ -2299,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>1.6759999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D7" s="15">
         <v>100.1</v>
@@ -2317,11 +2311,11 @@
       </c>
       <c r="H7" s="16">
         <f>C7/((9.81*F7)^0.5)</f>
-        <v>1.6913070994223378</v>
+        <v>0.16953436318791931</v>
       </c>
       <c r="I7" s="17">
         <f>F7+((C7^2)/(2*9.81))</f>
-        <v>0.24326901121304789</v>
+        <v>0.10153853211009174</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" ref="J7" si="1">((G7^2)/(9.81*F7))+((F7^2)/2)</f>
@@ -2716,7 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27AEE3-0A6B-41EF-AC76-0A40C0432953}">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/lab9/Lab09-Flu-Yo.xlsx
+++ b/lab9/Lab09-Flu-Yo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D600101A-3F5F-43EE-AC40-60EDD1CFB7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEA652-AE46-4C53-8C72-ECDDEC33B1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C70AFF6-6731-4404-BD4E-818A71273BCF}"/>
   </bookViews>
@@ -2121,7 +2121,7 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
